--- a/src/main/resources/TestData/testdata.xlsx
+++ b/src/main/resources/TestData/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" tabRatio="755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralConfig" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Parameters</t>
   </si>
@@ -102,9 +102,6 @@
     <t>qaskillschallenge@geophy.com,qaskillschallenge@geophy.com,555 N College Avenue Tempe AZ 85281,2 000 000,200,2000,80</t>
   </si>
   <si>
-    <t>skip</t>
-  </si>
-  <si>
     <t>qaskillschallenge@geophy.com,qaskillschallenge@geophy.com,555 N College Avenue Tempe AZ 85281,2 000 000,200,2000,80,555 N College Ave</t>
   </si>
   <si>
@@ -115,13 +112,40 @@
   </si>
   <si>
     <t>logoutTest</t>
+  </si>
+  <si>
+    <t>signUpTest</t>
+  </si>
+  <si>
+    <t>signUpFromExistingEmailIdTest</t>
+  </si>
+  <si>
+    <t>testFirst,testLast,testCompany,test_user1@test.com,test@123</t>
+  </si>
+  <si>
+    <t>profileUpdateTest</t>
+  </si>
+  <si>
+    <t>qaskillschallenge@geophy.com,qaskillschallenge@geophy.com,Geophy</t>
+  </si>
+  <si>
+    <t>resetPasswordTest</t>
+  </si>
+  <si>
+    <t>edgeDriver</t>
+  </si>
+  <si>
+    <t>msedgedriver</t>
+  </si>
+  <si>
+    <t>testFirst,testLast,testCompany,test_user5@test.com,test@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -138,6 +162,13 @@
     <font>
       <sz val="18"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -159,8 +190,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -181,7 +224,11 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -523,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -571,43 +618,51 @@
     </row>
     <row r="5" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -617,10 +672,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -646,7 +701,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -669,7 +724,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>24</v>
@@ -677,21 +732,21 @@
     </row>
     <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="48" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>19</v>
@@ -699,12 +754,56 @@
     </row>
     <row r="7" spans="1:4" ht="48" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
